--- a/MicroGrids/Results/Generator_Data.xlsx
+++ b/MicroGrids/Results/Generator_Data.xlsx
@@ -449,7 +449,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>16176.90177302888</v>
+        <v>16477.85834047381</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -465,7 +465,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>23941.81462408275</v>
+        <v>24387.23034390124</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -473,7 +473,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1077.381658083724</v>
+        <v>1097.425365475556</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/MicroGrids/Results/Generator_Data.xlsx
+++ b/MicroGrids/Results/Generator_Data.xlsx
@@ -14,36 +14,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Generator 1</t>
   </si>
   <si>
-    <t>Generator Efficiency</t>
-  </si>
-  <si>
-    <t>Low Heating Value</t>
-  </si>
-  <si>
-    <t>Fuel Cost</t>
-  </si>
-  <si>
-    <t>Generator Investment Cost</t>
-  </si>
-  <si>
-    <t>Generator Nominal Capacity</t>
-  </si>
-  <si>
-    <t>O&amp;M Generator</t>
-  </si>
-  <si>
-    <t>Investment Generator</t>
-  </si>
-  <si>
-    <t>O&amp;M Cost</t>
-  </si>
-  <si>
-    <t>Marginal Cost</t>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Lower Heating Value [Wh/Lt]</t>
+  </si>
+  <si>
+    <t>Fuel Cost [USD/Lt]</t>
+  </si>
+  <si>
+    <t>Investment Cost [USD/W]</t>
+  </si>
+  <si>
+    <t>O&amp;M Cost [%]</t>
+  </si>
+  <si>
+    <t>Marginal Cost [USD/Wh]</t>
+  </si>
+  <si>
+    <t>Nominal Capacity at upgrade 1</t>
+  </si>
+  <si>
+    <t>Nominal Capacity at upgrade 2</t>
+  </si>
+  <si>
+    <t>Nominal Capacity at upgrade 3</t>
+  </si>
+  <si>
+    <t>Investment at upgrade 1</t>
+  </si>
+  <si>
+    <t>Investment at upgrade 2</t>
+  </si>
+  <si>
+    <t>Investment at upgrade 3</t>
+  </si>
+  <si>
+    <t>Yearly O&amp;M Cost at upgrade 1</t>
+  </si>
+  <si>
+    <t>Yearly O&amp;M Cost at upgrade 2</t>
+  </si>
+  <si>
+    <t>Yearly O&amp;M Cost at upgrade 3</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost</t>
   </si>
 </sst>
 </file>
@@ -401,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -449,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>16477.85834047381</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -457,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.045</v>
+        <v>0.0002022244691607685</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -465,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>24387.23034390124</v>
+        <v>16477.85834047381</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -473,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1097.425365475556</v>
+        <v>16477.85834047381</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -481,7 +502,63 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.0002022244691607685</v>
+        <v>16477.85834047381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>24387.23034390124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>-5.384208634495735e-12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5.384208634495735e-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1097.425365475556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1097.425365475556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1097.425365475556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>37590.31367033289</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Generator_Data.xlsx
+++ b/MicroGrids/Results/Generator_Data.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Generator Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Yearly Fuel Costs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Generator 1</t>
   </si>
@@ -64,7 +65,25 @@
     <t>Yearly O&amp;M Cost at upgrade 3</t>
   </si>
   <si>
-    <t>Total Fuel Cost</t>
+    <t>Total actualized Fuel Cost</t>
+  </si>
+  <si>
+    <t>Scenario 1</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 1</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 2</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 3</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 4</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 5</t>
   </si>
 </sst>
 </file>
@@ -486,7 +505,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>16477.85834047381</v>
+        <v>16146.54371638244</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -494,7 +513,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>16477.85834047381</v>
+        <v>26896.85202553675</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -502,7 +521,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>16477.85834047381</v>
+        <v>34168.48705480649</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -510,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>24387.23034390124</v>
+        <v>23896.88470024601</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -518,7 +537,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-5.384208634495735e-12</v>
+        <v>15910.45629754838</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -526,7 +545,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>5.384208634495735e-12</v>
+        <v>10762.01984331922</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -534,7 +553,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1097.425365475556</v>
+        <v>1075.35981151107</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -542,7 +561,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1097.425365475556</v>
+        <v>1791.330344900747</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -550,7 +569,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1097.425365475556</v>
+        <v>2275.621237850112</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -558,7 +577,65 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>37590.31367033289</v>
+        <v>61024.70680104703</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>10745.77303325161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>13950.2911774083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>16846.49334686022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>21363.7078114552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>25978.9539081218</v>
       </c>
     </row>
   </sheetData>
